--- a/P1/Usability-review-template.xlsx
+++ b/P1/Usability-review-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Ingenieria informática\DIU\Practicas DIU\DIU20\P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E34EF6-04D6-4BF4-87ED-914FA2772351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D7862A-F9B2-48AF-8C23-7195C0F57CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="212">
   <si>
     <t>Usability guidelines</t>
   </si>
@@ -1820,9 +1820,6 @@
     <t>Tienes que bajar en la página para ver las distintas secciones , que son secciones que se podrían ahorrar debido a que son accesibles desde el menu vertical.</t>
   </si>
   <si>
-    <t>La página es devuelt como primera por los navegadores , auque su nombre no es muy intuitivo , además esta en inglés, cosa que puede ser una desventaja frente a los usuarios de habla no inlgesa</t>
-  </si>
-  <si>
     <t>La búsqueda solo acepta dos parámetros , el lugar  y el tipo de elemento que buscas (anfitrión, evento , viajero ..) . Echo en falta una búsqueda que contenga filtros aplicables tales como la valoración , edad , ranking ..etc</t>
   </si>
   <si>
@@ -1872,6 +1869,18 @@
   </si>
   <si>
     <t>En las búsquedas es lenta .</t>
+  </si>
+  <si>
+    <t>La página es devuelat como primera por los navegadores , auque su nombre no es muy intuitivo , además esta en inglés, cosa que puede ser una desventaja frente a los usuarios de habla no inlgesa</t>
+  </si>
+  <si>
+    <t>No he podido realizar este tipo de prubas ya que para realizar una petición de algún tipo necesitas completar tu perfil o verificarlo.</t>
+  </si>
+  <si>
+    <t>No aparecen errores, por ejemplo, acepta localizaciones inexistentes , y no notifica que esa localización no existe</t>
+  </si>
+  <si>
+    <t>Carece de imágenes. Las imágenes de los eventos y los grupos son de pésima alidad y en muchas ocasiones no tienen relación con el nombre del evento o del grupo.</t>
   </si>
 </sst>
 </file>
@@ -2494,13 +2503,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2518,11 +2527,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -2845,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2867,17 +2876,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
       <c r="J1" s="4"/>
       <c r="K1" s="6"/>
       <c r="L1" s="5"/>
@@ -2924,10 +2933,10 @@
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="23"/>
       <c r="D3" s="24" t="s">
         <v>10</v>
@@ -3054,19 +3063,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="O7" s="100" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="18"/>
@@ -3091,11 +3100,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="39"/>
@@ -3749,7 +3758,7 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="44" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="45">
@@ -3874,7 +3883,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="45">
@@ -4188,7 +4197,7 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="45">
@@ -4345,7 +4354,7 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="45">
@@ -4408,7 +4417,7 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="45">
@@ -4471,7 +4480,7 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="45">
@@ -4534,7 +4543,7 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="45">
@@ -4630,7 +4639,7 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="45">
@@ -4692,7 +4701,9 @@
         <v>#REF!</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="44"/>
+      <c r="I61" s="44" t="s">
+        <v>209</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="45">
         <v>3</v>
@@ -4754,7 +4765,7 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="45">
@@ -4850,7 +4861,7 @@
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="45">
@@ -5190,7 +5201,7 @@
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="45">
@@ -5252,7 +5263,9 @@
         <v>#REF!</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="44"/>
+      <c r="I81" s="44" t="s">
+        <v>210</v>
+      </c>
       <c r="J81" s="1"/>
       <c r="K81" s="45">
         <v>3</v>
@@ -5314,7 +5327,7 @@
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="45">
@@ -5376,7 +5389,9 @@
         <v>#REF!</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="44"/>
+      <c r="I85" s="44" t="s">
+        <v>200</v>
+      </c>
       <c r="J85" s="1"/>
       <c r="K85" s="45">
         <v>3</v>
@@ -5458,7 +5473,7 @@
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="43" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="e">
@@ -5470,7 +5485,9 @@
         <v>#REF!</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="44"/>
+      <c r="I89" s="44" t="s">
+        <v>211</v>
+      </c>
       <c r="J89" s="1"/>
       <c r="K89" s="45">
         <v>5</v>
@@ -5481,11 +5498,11 @@
       </c>
       <c r="M89" s="47">
         <f>VLOOKUP(D89,Q1:R9,2,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N89" s="47">
         <f>M89*L89</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O89" s="47">
         <f>IF(M89=0,0,L89*MAX(R2:R8))</f>
@@ -5532,7 +5549,7 @@
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="45">
@@ -5811,7 +5828,7 @@
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="45">
@@ -5874,7 +5891,7 @@
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="45">
@@ -5937,7 +5954,7 @@
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="45">
@@ -6000,7 +6017,7 @@
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="45">
@@ -6096,7 +6113,7 @@
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J111" s="13"/>
       <c r="K111" s="34">
@@ -6320,7 +6337,7 @@
       <c r="C117" s="73"/>
       <c r="D117" s="74">
         <f>IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
-        <v>64.148148148148138</v>
+        <v>62.666666666666657</v>
       </c>
       <c r="E117" s="75"/>
       <c r="F117" s="75"/>
@@ -6335,7 +6352,7 @@
       </c>
       <c r="J117" s="7">
         <f>IF(D117="",0,D117)</f>
-        <v>64.148148148148138</v>
+        <v>62.666666666666657</v>
       </c>
       <c r="K117" s="68">
         <f>MAX(K9:K115)</f>
@@ -6345,7 +6362,7 @@
       <c r="M117" s="68"/>
       <c r="N117" s="69">
         <f t="shared" ref="N117:O117" si="0">SUM(N9:N115)</f>
-        <v>86.6</v>
+        <v>84.6</v>
       </c>
       <c r="O117" s="69">
         <f t="shared" si="0"/>
@@ -6365,90 +6382,90 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A119" s="88" t="str">
+      <c r="A119" s="90" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="89"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="89"/>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="90"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="91"/>
+      <c r="H119" s="91"/>
+      <c r="I119" s="92"/>
       <c r="J119" s="1"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="15" customHeight="1">
-      <c r="A120" s="91" t="str">
+      <c r="A120" s="93" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="92"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="89"/>
+      <c r="H120" s="89"/>
+      <c r="I120" s="94"/>
       <c r="J120" s="1"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A121" s="93" t="str">
+      <c r="A121" s="95" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="B121" s="86"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="86"/>
-      <c r="I121" s="92"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
+      <c r="G121" s="89"/>
+      <c r="H121" s="89"/>
+      <c r="I121" s="94"/>
       <c r="J121" s="1"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A122" s="91" t="str">
+      <c r="A122" s="93" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="B122" s="86"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="86"/>
-      <c r="I122" s="92"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="89"/>
+      <c r="E122" s="89"/>
+      <c r="F122" s="89"/>
+      <c r="G122" s="89"/>
+      <c r="H122" s="89"/>
+      <c r="I122" s="94"/>
       <c r="J122" s="1"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A123" s="94" t="str">
+      <c r="A123" s="96" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="96"/>
+      <c r="B123" s="97"/>
+      <c r="C123" s="97"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="97"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="98"/>
       <c r="J123" s="1"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
@@ -16991,18 +17008,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A119:I119"/>
     <mergeCell ref="A120:I120"/>
     <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <conditionalFormatting sqref="D111 D113 D115 D105 D107 D101 D103 D89 D91 D93 D95 D97 D79 D81 D83 D85 D69 D71 D73 D75 D67 D63 D59 D61 D49 D51 D53 D55 D29 D35 D37 D39 D41 D43 D45 D31:D33 D21 D23:D25 D17 D9 D11 D13 D15">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -17055,17 +17072,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5"/>
@@ -17112,10 +17129,10 @@
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="23"/>
       <c r="D3" s="24" t="s">
         <v>10</v>
@@ -17242,19 +17259,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="O7" s="100" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="18"/>
@@ -17279,11 +17296,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="39"/>
@@ -20503,90 +20520,90 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A119" s="88" t="str">
+      <c r="A119" s="90" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="89"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="89"/>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="90"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="91"/>
+      <c r="H119" s="91"/>
+      <c r="I119" s="92"/>
       <c r="J119" s="1"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="15" customHeight="1">
-      <c r="A120" s="91" t="str">
+      <c r="A120" s="93" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="92"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="89"/>
+      <c r="H120" s="89"/>
+      <c r="I120" s="94"/>
       <c r="J120" s="1"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A121" s="93" t="str">
+      <c r="A121" s="95" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="B121" s="86"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="86"/>
-      <c r="I121" s="92"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
+      <c r="G121" s="89"/>
+      <c r="H121" s="89"/>
+      <c r="I121" s="94"/>
       <c r="J121" s="1"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A122" s="91" t="str">
+      <c r="A122" s="93" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="B122" s="86"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="86"/>
-      <c r="I122" s="92"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="89"/>
+      <c r="E122" s="89"/>
+      <c r="F122" s="89"/>
+      <c r="G122" s="89"/>
+      <c r="H122" s="89"/>
+      <c r="I122" s="94"/>
       <c r="J122" s="1"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A123" s="94" t="str">
+      <c r="A123" s="96" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="96"/>
+      <c r="B123" s="97"/>
+      <c r="C123" s="97"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="97"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="98"/>
       <c r="J123" s="1"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
@@ -31121,6 +31138,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="A1:I1"/>
@@ -31128,11 +31150,6 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
   </mergeCells>
   <conditionalFormatting sqref="D111 D113 D115 D105 D107 D101 D103 D89 D91 D93 D95 D97 D79 D81 D83 D85 D69 D71 D73 D75 D67 D63 D59 D61 D49 D51 D53 D55 D29 D35 D37 D39 D41 D43 D45 D31:D33 D21 D23:D25 D17 D9 D11 D13 D15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -31172,11 +31189,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="B2" s="2"/>
@@ -35836,9 +35853,9 @@
       <c r="C1" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="61">
